--- a/artfynd/A 1702-2025 artfynd.xlsx
+++ b/artfynd/A 1702-2025 artfynd.xlsx
@@ -909,7 +909,7 @@
         <v>122419173</v>
       </c>
       <c r="B4" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>122419281</v>
       </c>
       <c r="B5" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
